--- a/sheet05/data/BigRayleighTaylorPerformanceData.xlsx
+++ b/sheet05/data/BigRayleighTaylorPerformanceData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\tobias\MolSimPresentation\sheet05\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94AE5C83-8D20-44B3-9EEA-CA569B5C23CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF2FF53-63DD-4589-B447-2778344BB013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -387,7 +387,23 @@
                   </a:sysClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Time Comparison : Contest2 / Rayleigh-Taylor-Instability 3D (100,000 Particles, Version 1)</a:t>
+              <a:t>Time Comparison : Rayleigh-Taylor-Instability 3D Big </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>(600,000 Particles, c18-iteration, gcc)</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -527,6 +543,36 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2248.9160000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1198.2560000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>801.46799999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>531.89800000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>361.89699999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>304.39100000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>228.59399999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>282.17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>259.73700000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>287.32900000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -620,6 +666,36 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2243.9029999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1242.962</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>816.78300000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>510.89800000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>387.66899999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>297.33300000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>292.399</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>279.94499999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>250.70099999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>210.53299999999999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -807,34 +883,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2246.4094999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1220.6089999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>809.12549999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>521.39800000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>374.78300000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>300.86200000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>260.49649999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>281.0575</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>255.21899999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>248.93099999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1218,7 +1294,23 @@
                   </a:sysClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>MUP/s Comparison : Contest2 / Rayleigh-Taylor-Instability 3D (100,000 Particles, Version 1)</a:t>
+              <a:t>MUP/s Comparison : Rayleigh-Taylor-Instability 3D Big </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>(600,000 Particles, c18-iteration, gcc)</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -1371,6 +1463,36 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>266795.20266700001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500727.72429300001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>748626.270793</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1128035.826418</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1657930.2950840001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1971148.9498699999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2624740.806845</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2126377.7155619999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2310028.9908639998</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>2088198.5459179999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1464,6 +1586,36 @@
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>267391.23749999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>482717.89483499998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>734588.33669599995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1174402.718351</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1547712.0945959999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2017932.6952180001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2051990.601883</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2143278.143921</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2393289.2170350002</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>2849909.5153729999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1651,34 +1803,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>267093.22008350003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>491722.809564</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>741607.30374450004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1151219.2723845001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1602821.19484</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1994540.8225440001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2338365.7043639999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2134827.9297414999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>2351659.1039495002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>2469054.0306454999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2069,7 +2221,23 @@
                   </a:sysClr>
                 </a:solidFill>
               </a:rPr>
-              <a:t>Speedup Comparison : Contest2 / Rayleigh-Taylor-Instability 3D (100,000 Particles, Version 1)</a:t>
+              <a:t>Speedup Comparison : Rayleigh-Taylor-Instability 3D Big </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>(600,000 Particles, c18-iteration, gcc)</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -2223,34 +2391,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.8768243180088395</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2.8059959973448727</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>4.2280963643405318</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>6.2142432791650668</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>7.3882473529112227</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>9.8380359939455992</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>7.9700747776163308</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>8.6584352633625556</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>7.8269718684852556</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2346,34 +2514,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.8052868872901986</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2.7472449842859117</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>4.3920763048592866</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>5.788193020334357</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>7.5467674291114664</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>7.674113112561944</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>8.0155137616317482</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>8.9505147566224306</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>10.658200852122945</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6044,34 +6212,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2246.4094999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1220.6089999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>809.12549999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>521.39800000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>374.78300000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>300.86200000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>260.49649999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>281.0575</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>255.21899999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>248.93099999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6757,34 +6925,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>267093.22008350003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>491722.809564</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>741607.30374450004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1151219.2723845001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1602821.19484</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1994540.8225440001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2338365.7043639999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2134827.9297414999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>2351659.1039495002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>2469054.0306454999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14389,26 +14557,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:N52"/>
+  <dimension ref="B1:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S47" sqref="S47"/>
+    <sheetView tabSelected="1" topLeftCell="G43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AB48" sqref="AB48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
     <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
     <col min="10" max="10" width="11.7109375" customWidth="1"/>
     <col min="13" max="13" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="24" t="s">
         <v>9</v>
       </c>
@@ -14425,8 +14593,8 @@
       <c r="M2" s="25"/>
       <c r="N2" s="26"/>
     </row>
-    <row r="3" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="21" t="s">
         <v>1</v>
       </c>
@@ -14448,7 +14616,7 @@
       <c r="M4" s="22"/>
       <c r="N4" s="23"/>
     </row>
-    <row r="5" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
@@ -14489,21 +14657,29 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>1</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="13" t="e">
+      <c r="C6" s="11">
+        <v>2248.9160000000002</v>
+      </c>
+      <c r="D6" s="12">
+        <v>266795.20266700001</v>
+      </c>
+      <c r="E6" s="13">
         <f>C$6/C6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="13" t="e">
+        <v>1</v>
+      </c>
+      <c r="F6" s="11">
+        <v>2243.9029999999998</v>
+      </c>
+      <c r="G6" s="12">
+        <v>267391.23749999999</v>
+      </c>
+      <c r="H6" s="13">
         <f>F$6/F6</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
       <c r="I6" s="11"/>
       <c r="J6" s="12"/>
@@ -14511,34 +14687,42 @@
         <f>I$6/I6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L6" s="11" t="e">
+      <c r="L6" s="11">
         <f t="shared" ref="L6" si="0">AVERAGE(C6,F6,I6)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M6" s="12" t="e">
+        <v>2246.4094999999998</v>
+      </c>
+      <c r="M6" s="12">
         <f t="shared" ref="M6:N6" si="1">AVERAGE(D6,G6,J6)</f>
-        <v>#DIV/0!</v>
+        <v>267093.22008350003</v>
       </c>
       <c r="N6" s="13" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="6">
         <v>2</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5" t="e">
+      <c r="C7" s="3">
+        <v>1198.2560000000001</v>
+      </c>
+      <c r="D7" s="4">
+        <v>500727.72429300001</v>
+      </c>
+      <c r="E7" s="5">
         <f t="shared" ref="E7:E15" si="2">C$6/C7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="5" t="e">
+        <v>1.8768243180088395</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1242.962</v>
+      </c>
+      <c r="G7" s="4">
+        <v>482717.89483499998</v>
+      </c>
+      <c r="H7" s="5">
         <f t="shared" ref="H7:H15" si="3">F$6/F7</f>
-        <v>#DIV/0!</v>
+        <v>1.8052868872901986</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="4"/>
@@ -14546,34 +14730,42 @@
         <f t="shared" ref="K7:K15" si="4">I$6/I7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L7" s="3" t="e">
+      <c r="L7" s="3">
         <f t="shared" ref="L7:L15" si="5">AVERAGE(C7,F7,I7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M7" s="4" t="e">
+        <v>1220.6089999999999</v>
+      </c>
+      <c r="M7" s="4">
         <f t="shared" ref="M7:M15" si="6">AVERAGE(D7,G7,J7)</f>
-        <v>#DIV/0!</v>
+        <v>491722.809564</v>
       </c>
       <c r="N7" s="5" t="e">
         <f t="shared" ref="N7:N15" si="7">AVERAGE(E7,H7,K7)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="6">
         <v>4</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="5" t="e">
+      <c r="C8" s="3">
+        <v>801.46799999999996</v>
+      </c>
+      <c r="D8" s="4">
+        <v>748626.270793</v>
+      </c>
+      <c r="E8" s="5">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="5" t="e">
+        <v>2.8059959973448727</v>
+      </c>
+      <c r="F8" s="3">
+        <v>816.78300000000002</v>
+      </c>
+      <c r="G8" s="4">
+        <v>734588.33669599995</v>
+      </c>
+      <c r="H8" s="5">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>2.7472449842859117</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="4"/>
@@ -14581,34 +14773,42 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L8" s="3" t="e">
+      <c r="L8" s="3">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M8" s="4" t="e">
+        <v>809.12549999999999</v>
+      </c>
+      <c r="M8" s="4">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>741607.30374450004</v>
       </c>
       <c r="N8" s="5" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="6">
         <v>8</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5" t="e">
+      <c r="C9" s="3">
+        <v>531.89800000000002</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1128035.826418</v>
+      </c>
+      <c r="E9" s="5">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5" t="e">
+        <v>4.2280963643405318</v>
+      </c>
+      <c r="F9" s="3">
+        <v>510.89800000000002</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1174402.718351</v>
+      </c>
+      <c r="H9" s="5">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>4.3920763048592866</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="4"/>
@@ -14616,34 +14816,42 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L9" s="3" t="e">
+      <c r="L9" s="3">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M9" s="4" t="e">
+        <v>521.39800000000002</v>
+      </c>
+      <c r="M9" s="4">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>1151219.2723845001</v>
       </c>
       <c r="N9" s="5" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="6">
         <v>16</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="5" t="e">
+      <c r="C10" s="3">
+        <v>361.89699999999999</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1657930.2950840001</v>
+      </c>
+      <c r="E10" s="5">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="5" t="e">
+        <v>6.2142432791650668</v>
+      </c>
+      <c r="F10" s="3">
+        <v>387.66899999999998</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1547712.0945959999</v>
+      </c>
+      <c r="H10" s="5">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>5.788193020334357</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="4"/>
@@ -14651,34 +14859,43 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L10" s="3" t="e">
+      <c r="L10" s="3">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M10" s="4" t="e">
+        <v>374.78300000000002</v>
+      </c>
+      <c r="M10" s="4">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>1602821.19484</v>
       </c>
       <c r="N10" s="5" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="P10" s="4"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="6">
         <v>28</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="5" t="e">
+      <c r="C11" s="3">
+        <v>304.39100000000002</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1971148.9498699999</v>
+      </c>
+      <c r="E11" s="5">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="5" t="e">
+        <v>7.3882473529112227</v>
+      </c>
+      <c r="F11" s="3">
+        <v>297.33300000000003</v>
+      </c>
+      <c r="G11" s="4">
+        <v>2017932.6952180001</v>
+      </c>
+      <c r="H11" s="5">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>7.5467674291114664</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="4"/>
@@ -14686,34 +14903,42 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L11" s="3" t="e">
+      <c r="L11" s="3">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M11" s="4" t="e">
+        <v>300.86200000000002</v>
+      </c>
+      <c r="M11" s="4">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>1994540.8225440001</v>
       </c>
       <c r="N11" s="5" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="6">
         <v>42</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="5" t="e">
+      <c r="C12" s="3">
+        <v>228.59399999999999</v>
+      </c>
+      <c r="D12" s="4">
+        <v>2624740.806845</v>
+      </c>
+      <c r="E12" s="5">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="5" t="e">
+        <v>9.8380359939455992</v>
+      </c>
+      <c r="F12" s="3">
+        <v>292.399</v>
+      </c>
+      <c r="G12" s="4">
+        <v>2051990.601883</v>
+      </c>
+      <c r="H12" s="5">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>7.674113112561944</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="4"/>
@@ -14721,34 +14946,42 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L12" s="3" t="e">
+      <c r="L12" s="3">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M12" s="4" t="e">
+        <v>260.49649999999997</v>
+      </c>
+      <c r="M12" s="4">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>2338365.7043639999</v>
       </c>
       <c r="N12" s="5" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="6">
         <v>56</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="5" t="e">
+      <c r="C13" s="3">
+        <v>282.17</v>
+      </c>
+      <c r="D13" s="4">
+        <v>2126377.7155619999</v>
+      </c>
+      <c r="E13" s="5">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="5" t="e">
+        <v>7.9700747776163308</v>
+      </c>
+      <c r="F13" s="3">
+        <v>279.94499999999999</v>
+      </c>
+      <c r="G13" s="4">
+        <v>2143278.143921</v>
+      </c>
+      <c r="H13" s="5">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>8.0155137616317482</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="4"/>
@@ -14756,34 +14989,42 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L13" s="3" t="e">
+      <c r="L13" s="3">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M13" s="4" t="e">
+        <v>281.0575</v>
+      </c>
+      <c r="M13" s="4">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>2134827.9297414999</v>
       </c>
       <c r="N13" s="5" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="6">
         <v>72</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="5" t="e">
+      <c r="C14" s="3">
+        <v>259.73700000000002</v>
+      </c>
+      <c r="D14" s="4">
+        <v>2310028.9908639998</v>
+      </c>
+      <c r="E14" s="5">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="5" t="e">
+        <v>8.6584352633625556</v>
+      </c>
+      <c r="F14" s="3">
+        <v>250.70099999999999</v>
+      </c>
+      <c r="G14" s="4">
+        <v>2393289.2170350002</v>
+      </c>
+      <c r="H14" s="5">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>8.9505147566224306</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="4"/>
@@ -14791,34 +15032,42 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L14" s="3" t="e">
+      <c r="L14" s="3">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M14" s="4" t="e">
+        <v>255.21899999999999</v>
+      </c>
+      <c r="M14" s="4">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>2351659.1039495002</v>
       </c>
       <c r="N14" s="5" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="7">
         <v>96</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10" t="e">
+      <c r="C15" s="8">
+        <v>287.32900000000001</v>
+      </c>
+      <c r="D15" s="9">
+        <v>2088198.5459179999</v>
+      </c>
+      <c r="E15" s="10">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="10" t="e">
+        <v>7.8269718684852556</v>
+      </c>
+      <c r="F15" s="8">
+        <v>210.53299999999999</v>
+      </c>
+      <c r="G15" s="9">
+        <v>2849909.5153729999</v>
+      </c>
+      <c r="H15" s="10">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>10.658200852122945</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="9"/>
@@ -14826,13 +15075,13 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L15" s="8" t="e">
+      <c r="L15" s="8">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M15" s="14" t="e">
+        <v>248.93099999999998</v>
+      </c>
+      <c r="M15" s="14">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>2469054.0306454999</v>
       </c>
       <c r="N15" s="10" t="e">
         <f t="shared" si="7"/>
